--- a/results.xlsx
+++ b/results.xlsx
@@ -5,25 +5,24 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aless\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\emanu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF1D202-0C9C-47E3-9BF6-1C1282F1AC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7ED1013-DDC3-4873-B8B5-59592EC52EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C140248F-D851-4856-A013-9175C112595F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C140248F-D851-4856-A013-9175C112595F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">Sheet2!$C$33</definedName>
-    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!#REF!</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,13 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
-  <si>
-    <t>Emanuele</t>
-  </si>
-  <si>
-    <t>Alessandro</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
   <si>
     <t>env1</t>
   </si>
@@ -72,154 +65,10 @@
     <t>6 blocks random</t>
   </si>
   <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>variance</t>
-  </si>
-  <si>
-    <t>standard dev</t>
-  </si>
-  <si>
-    <t>standard error</t>
-  </si>
-  <si>
-    <t>differenza media</t>
-  </si>
-  <si>
-    <t>sigma^2</t>
-  </si>
-  <si>
-    <t>differenza valore media</t>
-  </si>
-  <si>
-    <t>t=differenza media/standard error</t>
-  </si>
-  <si>
-    <t>T test</t>
-  </si>
-  <si>
-    <t>Env 1</t>
-  </si>
-  <si>
-    <t>Env 2</t>
-  </si>
-  <si>
-    <t>Env 3</t>
-  </si>
-  <si>
     <t xml:space="preserve">media </t>
   </si>
   <si>
     <t>deviazione standard</t>
-  </si>
-  <si>
-    <t>Interpretazione dei Risultati del t-Test
-Mean e Variance:
-Bot A:
-Media (Mean 1): 55.48
-Varianza (Variance 1): 4.16
-Bot B:
-Media (Mean 2): 84.83
-Varianza (Variance 2): 0.14
-Bot B ha un tempo medio di completamento significativamente più alto rispetto a Bot A. La varianza del tempo di completamento di Bot B è molto inferiore a quella di Bot A, suggerendo che Bot B è molto più consistente nei suoi tempi.
-t Stat:
-Il valore t calcolato è -51.08. Questo valore è estremamente grande in valore assoluto, il che suggerisce una differenza molto significativa tra i due set di dati.
-P(T&lt;=t) one-tail e two-tail:
-P(T&lt;=t) one-tail: 1.14E-16
-P(T&lt;=t) two-tail: 2.27E-16
-Entrambi i p-value sono molto più piccoli del livello di significatività tipico di 0.05. Questo indica che c'è una differenza statisticamente significativa tra i tempi di completamento dei due bot.
-t Critical:
-t Critical one-tail: 1.77
-t Critical two-tail: 2.16
-Confrontando t Stat con t Critical:
-|t Stat| = 51.08 è molto maggiore di t Critical two-tail = 2.16, quindi rifiutiamo l'ipotesi nulla.</t>
-  </si>
-  <si>
-    <t>Interpretazione dei Risultati
-Mean e Variance:
-Bot A:
-Media (Mean 1): 76.01
-Varianza (Variance 1): 7.23
-Bot B:
-Media (Mean 2): 116.69
-Varianza (Variance 2): 3.25
-Bot B ha un tempo medio di completamento significativamente più alto rispetto a Bot A. Tuttavia, la varianza dei tempi di completamento di Bot B è inferiore a quella di Bot A, suggerendo che Bot B è più consistente nei suoi tempi.
-t Stat:
-Il valore t calcolato è -51.05. Questo valore è estremamente alto in valore assoluto, suggerendo una forte evidenza contro l'ipotesi nulla.
-P(T&lt;=t) one-tail e two-tail:
-P(T&lt;=t) one-tail: 1.14E-16
-P(T&lt;=t) two-tail: 2.29E-16
-Entrambi i p-value sono molto più piccoli del livello di significatività tipico di 0.05. Questo indica che c'è una differenza statisticamente significativa tra i tempi di completamento dei due bot.
-t Critical:
-t Critical one-tail: 1.77
-t Critical two-tail: 2.16
-Confrontando t Stat con t Critical:
-|t Stat| = 51.05 è molto maggiore di t Critical two-tail = 2.16, quindi rifiutiamo l'ipotesi nulla.</t>
-  </si>
-  <si>
-    <t>Interpretazione dei Risultati
-Mean e Variance:
-Bot A:
-Media (Mean 1): 66.09
-Varianza (Variance 1): 1251.67
-Bot B:
-Media (Mean 2): 86.22
-Varianza (Variance 2): 237.19
-Bot B ha un tempo medio di completamento più alto rispetto a Bot A. La varianza dei tempi di completamento di Bot A è molto più alta rispetto a quella di Bot B, suggerendo che Bot A è meno consistente nei suoi tempi rispetto a Bot B.
-t Stat:
-Il valore t calcolato è -2.01. Questo valore suggerisce una certa evidenza contro l'ipotesi nulla, ma dobbiamo confrontarlo con il valore critico per determinare la significatività.
-P(T&lt;=t) one-tail e two-tail:
-P(T&lt;=t) one-tail: 0.033
-P(T&lt;=t) two-tail: 0.066
-Per un test a una coda, il p-value è 0.033, che è inferiore a 0.05, indicando che la differenza è significativa a un livello di significatività del 5%. Per un test a due code, il p-value è 0.066, che è leggermente superiore a 0.05, indicando che la differenza non è significativa a un livello di significatività del 5%.
-t Critical:
-t Critical one-tail: 1.77
-t Critical two-tail: 2.16
-Confrontando t Stat con t Critical:
-Per il test a una coda: |t Stat| = 2.01 è maggiore di t Critical one-tail = 1.77, quindi rifiutiamo l'ipotesi nulla per il test a una coda.
-Per il test a due code: |t Stat| = 2.01 è leggermente inferiore a t Critical two-tail = 2.16, quindi non possiamo rifiutare l'ipotesi nulla per il test a due code.</t>
-  </si>
-  <si>
-    <t>Conclusione per l'Ambiente 3
-I risultati del t-test indicano che c'è una differenza marginalmente significativa tra i tempi di completamento dei due bot nell'Ambiente 3 quando si considera un test a una coda. Il bot con il codice B ha un tempo medio di completamento più alto, ma è più consistente (meno variabile) rispetto al bot con il codice A.</t>
-  </si>
-  <si>
-    <t>Analisi della Ripetibilità
-Considerazioni sull'Affidabilità
-Affidabilità (Ripetibilità) dei Bot:
-Bot A: Media di 66.09 secondi, con una varianza di 1251.67 secondi.
-Bot B: Media di 86.22 secondi, con una varianza di 237.19 secondi.
-Bot B, pur essendo più lento in media, è più affidabile in termini di ripetibilità dei tempi di completamento, grazie alla sua varianza inferiore.</t>
-  </si>
-  <si>
-    <t>Conclusione per l'Ambiente 2
-I risultati del t-test indicano che c'è una differenza statisticamente significativa tra i tempi di completamento dei due bot nell'Ambiente 2. Il bot con il codice B ha un tempo medio di completamento più alto ma è più consistente (meno variabile) rispetto al bot con il codice A.</t>
-  </si>
-  <si>
-    <t>Analisi della Ripetibilità
-Considerazioni sull'Affidabilità
-Affidabilità (Ripetibilità) dei Bot:
-Bot A: Media di 76.01 secondi, con una varianza di 7.23 secondi.
-Bot B: Media di 116.69 secondi, con una varianza di 3.25 secondi.
-Bot B, pur essendo più lento in media, è più affidabile in termini di ripetibilità dei tempi di completamento, grazie alla sua varianza inferiore.</t>
-  </si>
-  <si>
-    <t>Conclusione per l'Ambiente 1
-I risultati del t-test indicano che c'è una differenza statisticamente significativa tra i tempi di completamento dei due bot nell'Ambiente 1. Il bot con il codice B ha una media di completamento più alta ma è molto più consistente (meno variabile) rispetto al bot con il codice A.</t>
-  </si>
-  <si>
-    <t>Analisi della Ripetibilità
-Considerazioni sull'Affidabilità
-Affidabilità (Ripetibilità) dei Bot:
-Bot A: Media di 55.48 secondi, con una varianza di 4.16 secondi.
-Bot B: Media di 84.83 secondi, con una varianza di 0.14 secondi.
-Bot B, pur essendo più lento in media, è più affidabile in termini di ripetibilità dei tempi di completamento, grazie alla sua varianza molto bassa.</t>
-  </si>
-  <si>
-    <t>Sintesi Finale
-Ambienti 1 e 2: Bot B è significativamente più affidabile di Bot A in termini di ripetibilità dei tempi di completamento.
-Ambiente 3: Bot B è più affidabile secondo il test a una coda, ma non secondo il test a due code.</t>
   </si>
   <si>
     <t>Test t: due campioni accoppiati per medie</t>
@@ -246,19 +95,10 @@
     <t>Stat t</t>
   </si>
   <si>
-    <t>P(T&lt;=t) una coda</t>
-  </si>
-  <si>
-    <t>t critico una coda</t>
-  </si>
-  <si>
     <t>P(T&lt;=t) due code</t>
   </si>
   <si>
     <t>t critico due code</t>
-  </si>
-  <si>
-    <t>&lt;0.05</t>
   </si>
   <si>
     <t>&gt;0.05</t>
@@ -268,21 +108,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0.00000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
-    <numFmt numFmtId="166" formatCode="0.00000E+00"/>
+    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="173" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -323,36 +158,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -370,7 +194,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -480,7 +304,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$4:$B$18</c:f>
+              <c:f>Sheet1!$B$4:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -534,7 +358,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$4:$C$18</c:f>
+              <c:f>Sheet1!$C$4:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="15"/>
@@ -619,7 +443,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$4:$B$18</c:f>
+              <c:f>Sheet1!$B$4:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -673,7 +497,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$E$18</c:f>
+              <c:f>Sheet1!$E$4:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -945,7 +769,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1055,7 +879,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$4:$B$18</c:f>
+              <c:f>Sheet1!$B$4:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1109,7 +933,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$I$4:$I$18</c:f>
+              <c:f>Sheet1!$I$4:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1194,7 +1018,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$4:$B$18</c:f>
+              <c:f>Sheet1!$B$4:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1248,7 +1072,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$K$4:$K$18</c:f>
+              <c:f>Sheet1!$K$4:$K$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1520,7 +1344,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1630,7 +1454,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$4:$B$18</c:f>
+              <c:f>Sheet1!$B$4:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1684,7 +1508,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$O$4:$O$18</c:f>
+              <c:f>Sheet1!$O$4:$O$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1769,7 +1593,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$4:$B$18</c:f>
+              <c:f>Sheet1!$B$4:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1823,7 +1647,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$Q$4:$Q$18</c:f>
+              <c:f>Sheet1!$Q$4:$Q$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3706,13 +3530,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1270000</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>542924</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3742,13 +3566,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3780,13 +3604,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>561976</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3818,7 +3642,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4133,1479 +3957,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DE3EDD-2D79-4B1F-971C-C2E88E31C2EC}">
-  <dimension ref="B1:AA27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5DEEAB6-47B1-4477-9E37-0A99D65A087F}">
+  <dimension ref="A2:R33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" customWidth="1"/>
+    <col min="8" max="8" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R3" t="s">
-        <v>14</v>
-      </c>
-      <c r="S3" t="s">
-        <v>13</v>
-      </c>
-      <c r="T3" t="s">
-        <v>19</v>
-      </c>
-      <c r="U3" t="s">
-        <v>14</v>
-      </c>
-      <c r="V3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z3" s="4">
-        <f>_xlfn.T.TEST(C4:C18, N4:N18,2,1)</f>
-        <v>9.561302379932464E-18</v>
-      </c>
-      <c r="AA3">
-        <f>_xlfn.T.TEST(F4:F18, Q4:Q18,2,1)</f>
-        <v>1.3522844523957153E-17</v>
-      </c>
-    </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>54.959874868392902</v>
-      </c>
-      <c r="D4" s="1">
-        <f>C4-$C$20</f>
-        <v>-0.48705291748046875</v>
-      </c>
-      <c r="E4" s="1">
-        <f t="shared" ref="E4:E17" si="0">D4^2</f>
-        <v>0.2372205444262363</v>
-      </c>
-      <c r="F4" s="1">
-        <v>78.262053728103595</v>
-      </c>
-      <c r="G4" s="1">
-        <f t="shared" ref="G4:G17" si="1">F4-$F$20</f>
-        <v>2.1038008530934462</v>
-      </c>
-      <c r="H4" s="1">
-        <f t="shared" ref="H4:H17" si="2">G4^2</f>
-        <v>4.4259780294767124</v>
-      </c>
-      <c r="I4">
-        <v>40.401829004287698</v>
-      </c>
-      <c r="J4" s="1">
-        <f t="shared" ref="J4:J17" si="3">I4-$I$20</f>
-        <v>-23.971256812413451</v>
-      </c>
-      <c r="K4" s="1">
-        <f t="shared" ref="K4:K17" si="4">J4^2</f>
-        <v>574.62115316667825</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4" s="3">
-        <v>84.652799999999999</v>
-      </c>
-      <c r="O4" s="1">
-        <f>N4-$N$20</f>
-        <v>-0.16492600000000834</v>
-      </c>
-      <c r="P4" s="3">
-        <f>O4^2</f>
-        <v>2.7200585476002754E-2</v>
-      </c>
-      <c r="Q4">
-        <v>116.657028</v>
-      </c>
-      <c r="R4" s="1">
-        <f>Q4-$Q$20</f>
-        <v>-2.6777866666677141E-2</v>
-      </c>
-      <c r="S4" s="1">
-        <f>R4^2</f>
-        <v>7.1705414321833873E-4</v>
-      </c>
-      <c r="T4">
-        <v>84.973619999999997</v>
-      </c>
-      <c r="U4" s="1">
-        <f>T4-$T$20</f>
-        <v>-1.1625973333333377</v>
-      </c>
-      <c r="V4" s="1">
-        <f>U4^2</f>
-        <v>1.3516325594737879</v>
-      </c>
-    </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>55.274461746215799</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" ref="D5:D18" si="5">C5-$C$20</f>
-        <v>-0.17246603965757146</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" si="0"/>
-        <v>2.9744534835167011E-2</v>
-      </c>
-      <c r="F5" s="1">
-        <v>75.808310508727999</v>
-      </c>
-      <c r="G5" s="1">
-        <f t="shared" si="1"/>
-        <v>-0.34994236628214992</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" si="2"/>
-        <v>0.12245965971915038</v>
-      </c>
-      <c r="I5" s="1">
-        <v>135.85113525390599</v>
-      </c>
-      <c r="J5" s="1">
-        <f t="shared" si="3"/>
-        <v>71.478049437204845</v>
-      </c>
-      <c r="K5" s="1">
-        <f t="shared" si="4"/>
-        <v>5109.1115513474997</v>
-      </c>
-      <c r="L5" s="1"/>
-      <c r="M5">
-        <v>2</v>
-      </c>
-      <c r="N5">
-        <v>85.44914</v>
-      </c>
-      <c r="O5" s="1">
-        <f t="shared" ref="O5:O18" si="6">N5-$N$20</f>
-        <v>0.63141399999999237</v>
-      </c>
-      <c r="P5" s="3">
-        <f t="shared" ref="P5:P18" si="7">O5^2</f>
-        <v>0.39868363939599039</v>
-      </c>
-      <c r="Q5">
-        <v>116.31923999999999</v>
-      </c>
-      <c r="R5" s="1">
-        <f t="shared" ref="R5:R18" si="8">Q5-$Q$20</f>
-        <v>-0.36456586666668045</v>
-      </c>
-      <c r="S5" s="1">
-        <f t="shared" ref="S5:S18" si="9">R5^2</f>
-        <v>0.13290827113842782</v>
-      </c>
-      <c r="T5">
-        <v>85.444310000000002</v>
-      </c>
-      <c r="U5" s="1">
-        <f t="shared" ref="U5:U18" si="10">T5-$T$20</f>
-        <v>-0.69190733333333299</v>
-      </c>
-      <c r="V5" s="1">
-        <f t="shared" ref="V5:V18" si="11">U5^2</f>
-        <v>0.47873575792044398</v>
-      </c>
-    </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>52.361139774322503</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="5"/>
-        <v>-3.0857880115508678</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="0"/>
-        <v>9.5220876522310594</v>
-      </c>
-      <c r="F6" s="1">
-        <v>75.558684110641394</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" si="1"/>
-        <v>-0.59956876436875461</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.35948270320667519</v>
-      </c>
-      <c r="I6" s="1">
-        <v>45.360584259033203</v>
-      </c>
-      <c r="J6" s="1">
-        <f t="shared" si="3"/>
-        <v>-19.012501557667946</v>
-      </c>
-      <c r="K6" s="1">
-        <f t="shared" si="4"/>
-        <v>361.47521548032609</v>
-      </c>
-      <c r="L6" s="1"/>
-      <c r="M6">
-        <v>3</v>
-      </c>
-      <c r="N6">
-        <v>84.469549999999998</v>
-      </c>
-      <c r="O6" s="1">
-        <f t="shared" si="6"/>
-        <v>-0.34817600000000937</v>
-      </c>
-      <c r="P6" s="3">
-        <f t="shared" si="7"/>
-        <v>0.12122652697600653</v>
-      </c>
-      <c r="Q6">
-        <v>116.99526</v>
-      </c>
-      <c r="R6" s="1">
-        <f t="shared" si="8"/>
-        <v>0.31145413333332783</v>
-      </c>
-      <c r="S6" s="1">
-        <f t="shared" si="9"/>
-        <v>9.7003677170414346E-2</v>
-      </c>
-      <c r="T6">
-        <v>85.650300000000001</v>
-      </c>
-      <c r="U6" s="1">
-        <f t="shared" si="10"/>
-        <v>-0.48591733333333309</v>
-      </c>
-      <c r="V6" s="1">
-        <f t="shared" si="11"/>
-        <v>0.23611565483377756</v>
-      </c>
-    </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <v>54.494693517684901</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" si="5"/>
-        <v>-0.95223426818846946</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.90675010151242996</v>
-      </c>
-      <c r="F7" s="1">
-        <v>78.6530117988586</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="1"/>
-        <v>2.4947589238484511</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="2"/>
-        <v>6.2238220881214819</v>
-      </c>
-      <c r="I7" s="1">
-        <v>42.247034072875898</v>
-      </c>
-      <c r="J7" s="1">
-        <f t="shared" si="3"/>
-        <v>-22.126051743825251</v>
-      </c>
-      <c r="K7" s="1">
-        <f t="shared" si="4"/>
-        <v>489.56216577043239</v>
-      </c>
-      <c r="L7" s="1"/>
-      <c r="M7">
-        <v>4</v>
-      </c>
-      <c r="N7">
-        <v>85.056229999999999</v>
-      </c>
-      <c r="O7" s="1">
-        <f t="shared" si="6"/>
-        <v>0.23850399999999183</v>
-      </c>
-      <c r="P7" s="3">
-        <f t="shared" si="7"/>
-        <v>5.6884158015996104E-2</v>
-      </c>
-      <c r="Q7">
-        <v>116.06432</v>
-      </c>
-      <c r="R7" s="1">
-        <f t="shared" si="8"/>
-        <v>-0.61948586666667893</v>
-      </c>
-      <c r="S7" s="1">
-        <f t="shared" si="9"/>
-        <v>0.38376273899976632</v>
-      </c>
-      <c r="T7">
-        <v>57.177819999999997</v>
-      </c>
-      <c r="U7" s="1">
-        <f t="shared" si="10"/>
-        <v>-28.958397333333338</v>
-      </c>
-      <c r="V7" s="1">
-        <f t="shared" si="11"/>
-        <v>838.58877611520734</v>
-      </c>
-    </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>53.376106500625603</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" si="5"/>
-        <v>-2.0708212852477672</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="0"/>
-        <v>4.2883007954352141</v>
-      </c>
-      <c r="F8" s="1">
-        <v>72.045760154724107</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" si="1"/>
-        <v>-4.112492720286042</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="2"/>
-        <v>16.912596374405691</v>
-      </c>
-      <c r="I8" s="1">
-        <v>48.698297262191701</v>
-      </c>
-      <c r="J8" s="1">
-        <f t="shared" si="3"/>
-        <v>-15.674788554509448</v>
-      </c>
-      <c r="K8" s="1">
-        <f t="shared" si="4"/>
-        <v>245.69899622858037</v>
-      </c>
-      <c r="L8" s="1"/>
-      <c r="M8">
-        <v>5</v>
-      </c>
-      <c r="N8">
-        <v>85.262860000000003</v>
-      </c>
-      <c r="O8" s="1">
-        <f t="shared" si="6"/>
-        <v>0.44513399999999592</v>
-      </c>
-      <c r="P8" s="3">
-        <f t="shared" si="7"/>
-        <v>0.19814427795599637</v>
-      </c>
-      <c r="Q8">
-        <v>118.91829</v>
-      </c>
-      <c r="R8" s="1">
-        <f t="shared" si="8"/>
-        <v>2.234484133333325</v>
-      </c>
-      <c r="S8" s="1">
-        <f t="shared" si="9"/>
-        <v>4.9929193421183804</v>
-      </c>
-      <c r="T8">
-        <v>87.333560000000006</v>
-      </c>
-      <c r="U8" s="1">
-        <f t="shared" si="10"/>
-        <v>1.1973426666666711</v>
-      </c>
-      <c r="V8" s="1">
-        <f t="shared" si="11"/>
-        <v>1.433629461420455</v>
-      </c>
-    </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1">
-        <v>54.613642930984497</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" si="5"/>
-        <v>-0.83328485488887338</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" si="0"/>
-        <v>0.69436364938717077</v>
-      </c>
-      <c r="F9" s="1">
-        <v>77.804898262023897</v>
-      </c>
-      <c r="G9" s="1">
-        <f t="shared" si="1"/>
-        <v>1.6466453870137485</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" si="2"/>
-        <v>2.7114410305736576</v>
-      </c>
-      <c r="I9" s="1">
-        <v>52.721425294876099</v>
-      </c>
-      <c r="J9" s="1">
-        <f t="shared" si="3"/>
-        <v>-11.65166052182505</v>
-      </c>
-      <c r="K9" s="1">
-        <f t="shared" si="4"/>
-        <v>135.76119291585641</v>
-      </c>
-      <c r="L9" s="1"/>
-      <c r="M9">
-        <v>6</v>
-      </c>
-      <c r="N9">
-        <v>85.144090000000006</v>
-      </c>
-      <c r="O9" s="1">
-        <f t="shared" si="6"/>
-        <v>0.3263639999999981</v>
-      </c>
-      <c r="P9" s="3">
-        <f t="shared" si="7"/>
-        <v>0.10651346049599876</v>
-      </c>
-      <c r="Q9">
-        <v>115.75485</v>
-      </c>
-      <c r="R9" s="1">
-        <f t="shared" si="8"/>
-        <v>-0.92895586666666929</v>
-      </c>
-      <c r="S9" s="1">
-        <f t="shared" si="9"/>
-        <v>0.86295900221442268</v>
-      </c>
-      <c r="T9">
-        <v>86.117850000000004</v>
-      </c>
-      <c r="U9" s="1">
-        <f t="shared" si="10"/>
-        <v>-1.8367333333330293E-2</v>
-      </c>
-      <c r="V9" s="1">
-        <f t="shared" si="11"/>
-        <v>3.3735893377766609E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1">
-        <v>58.057340383529599</v>
-      </c>
-      <c r="D10" s="1">
-        <f t="shared" si="5"/>
-        <v>2.6104125976562287</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>6.8142539300023399</v>
-      </c>
-      <c r="F10" s="1">
-        <v>76.690699815750094</v>
-      </c>
-      <c r="G10" s="1">
-        <f t="shared" si="1"/>
-        <v>0.53244694073994481</v>
-      </c>
-      <c r="H10" s="1">
-        <f t="shared" si="2"/>
-        <v>0.28349974470332628</v>
-      </c>
-      <c r="I10" s="1">
-        <v>49.401434898376401</v>
-      </c>
-      <c r="J10" s="1">
-        <f t="shared" si="3"/>
-        <v>-14.971650918324748</v>
-      </c>
-      <c r="K10" s="1">
-        <f t="shared" si="4"/>
-        <v>224.15033122017428</v>
-      </c>
-      <c r="L10" s="1"/>
-      <c r="M10">
-        <v>7</v>
-      </c>
-      <c r="N10">
-        <v>84.786169999999998</v>
-      </c>
-      <c r="O10" s="1">
-        <f t="shared" si="6"/>
-        <v>-3.1556000000009021E-2</v>
-      </c>
-      <c r="P10" s="3">
-        <f t="shared" si="7"/>
-        <v>9.9578113600056937E-4</v>
-      </c>
-      <c r="Q10">
-        <v>116.05548</v>
-      </c>
-      <c r="R10" s="1">
-        <f t="shared" si="8"/>
-        <v>-0.62832586666667112</v>
-      </c>
-      <c r="S10" s="1">
-        <f t="shared" si="9"/>
-        <v>0.39479339472242336</v>
-      </c>
-      <c r="T10">
-        <v>85.950400000000002</v>
-      </c>
-      <c r="U10" s="1">
-        <f t="shared" si="10"/>
-        <v>-0.18581733333333261</v>
-      </c>
-      <c r="V10" s="1">
-        <f t="shared" si="11"/>
-        <v>3.4528081367110844E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1">
-        <v>59.334924936294499</v>
-      </c>
-      <c r="D11" s="1">
-        <f t="shared" si="5"/>
-        <v>3.8879971504211284</v>
-      </c>
-      <c r="E11" s="1">
-        <f t="shared" si="0"/>
-        <v>15.116521841682815</v>
-      </c>
-      <c r="F11" s="1">
-        <v>74.823342323303194</v>
-      </c>
-      <c r="G11" s="1">
-        <f t="shared" si="1"/>
-        <v>-1.3349105517069546</v>
-      </c>
-      <c r="H11" s="1">
-        <f t="shared" si="2"/>
-        <v>1.781986181058566</v>
-      </c>
-      <c r="I11" s="1">
-        <v>60.815525293350198</v>
-      </c>
-      <c r="J11" s="1">
-        <f t="shared" si="3"/>
-        <v>-3.5575605233509506</v>
-      </c>
-      <c r="K11" s="1">
-        <f t="shared" si="4"/>
-        <v>12.656236877305091</v>
-      </c>
-      <c r="L11" s="1"/>
-      <c r="M11">
-        <v>8</v>
-      </c>
-      <c r="N11">
-        <v>84.369529999999997</v>
-      </c>
-      <c r="O11" s="1">
-        <f t="shared" si="6"/>
-        <v>-0.44819600000001003</v>
-      </c>
-      <c r="P11" s="3">
-        <f t="shared" si="7"/>
-        <v>0.200879654416009</v>
-      </c>
-      <c r="Q11">
-        <v>114.75794999999999</v>
-      </c>
-      <c r="R11" s="1">
-        <f t="shared" si="8"/>
-        <v>-1.9258558666666801</v>
-      </c>
-      <c r="S11" s="1">
-        <f t="shared" si="9"/>
-        <v>3.7089208191744696</v>
-      </c>
-      <c r="T11">
-        <v>116.41468</v>
-      </c>
-      <c r="U11" s="1">
-        <f t="shared" si="10"/>
-        <v>30.27846266666667</v>
-      </c>
-      <c r="V11" s="1">
-        <f t="shared" si="11"/>
-        <v>916.78530145672732</v>
-      </c>
-    </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1">
-        <v>55.130685567855799</v>
-      </c>
-      <c r="D12" s="1">
-        <f t="shared" si="5"/>
-        <v>-0.31624221801757102</v>
-      </c>
-      <c r="E12" s="1">
-        <f t="shared" si="0"/>
-        <v>0.10000914045667292</v>
-      </c>
-      <c r="F12" s="1">
-        <v>74.272506237030001</v>
-      </c>
-      <c r="G12" s="1">
-        <f t="shared" si="1"/>
-        <v>-1.885746637980148</v>
-      </c>
-      <c r="H12" s="1">
-        <f t="shared" si="2"/>
-        <v>3.556040382653431</v>
-      </c>
-      <c r="I12" s="1">
-        <v>113.404592275619</v>
-      </c>
-      <c r="J12" s="1">
-        <f t="shared" si="3"/>
-        <v>49.031506458917846</v>
-      </c>
-      <c r="K12" s="1">
-        <f t="shared" si="4"/>
-        <v>2404.0886256309022</v>
-      </c>
-      <c r="L12" s="1"/>
-      <c r="M12">
-        <v>9</v>
-      </c>
-      <c r="N12">
-        <v>85.046859999999995</v>
-      </c>
-      <c r="O12" s="1">
-        <f t="shared" si="6"/>
-        <v>0.22913399999998774</v>
-      </c>
-      <c r="P12" s="3">
-        <f t="shared" si="7"/>
-        <v>5.2502389955994377E-2</v>
-      </c>
-      <c r="Q12">
-        <v>113.37381000000001</v>
-      </c>
-      <c r="R12" s="1">
-        <f t="shared" si="8"/>
-        <v>-3.309995866666668</v>
-      </c>
-      <c r="S12" s="1">
-        <f t="shared" si="9"/>
-        <v>10.956072637350427</v>
-      </c>
-      <c r="T12">
-        <v>107.32852</v>
-      </c>
-      <c r="U12" s="1">
-        <f t="shared" si="10"/>
-        <v>21.192302666666663</v>
-      </c>
-      <c r="V12" s="1">
-        <f t="shared" si="11"/>
-        <v>449.11369231560695</v>
-      </c>
-    </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1">
-        <v>59.192314386367798</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" si="5"/>
-        <v>3.7453866004944274</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="0"/>
-        <v>14.027920787163204</v>
-      </c>
-      <c r="F13" s="1">
-        <v>70.117750883102403</v>
-      </c>
-      <c r="G13" s="1">
-        <f t="shared" si="1"/>
-        <v>-6.0405019919077461</v>
-      </c>
-      <c r="H13" s="1">
-        <f t="shared" si="2"/>
-        <v>36.487664314241449</v>
-      </c>
-      <c r="I13" s="1">
-        <v>42.963832855224602</v>
-      </c>
-      <c r="J13" s="1">
-        <f t="shared" si="3"/>
-        <v>-21.409252961476547</v>
-      </c>
-      <c r="K13" s="1">
-        <f t="shared" si="4"/>
-        <v>458.35611236849229</v>
-      </c>
-      <c r="L13" s="1"/>
-      <c r="M13">
-        <v>10</v>
-      </c>
-      <c r="N13">
-        <v>84.77364</v>
-      </c>
-      <c r="O13" s="1">
-        <f t="shared" si="6"/>
-        <v>-4.4086000000007175E-2</v>
-      </c>
-      <c r="P13" s="3">
-        <f t="shared" si="7"/>
-        <v>1.9435753960006326E-3</v>
-      </c>
-      <c r="Q13">
-        <v>116.49312</v>
-      </c>
-      <c r="R13" s="1">
-        <f t="shared" si="8"/>
-        <v>-0.19068586666666931</v>
-      </c>
-      <c r="S13" s="1">
-        <f t="shared" si="9"/>
-        <v>3.6361099746418789E-2</v>
-      </c>
-      <c r="T13">
-        <v>86.542479999999998</v>
-      </c>
-      <c r="U13" s="1">
-        <f t="shared" si="10"/>
-        <v>0.40626266666666311</v>
-      </c>
-      <c r="V13" s="1">
-        <f t="shared" si="11"/>
-        <v>0.16504935432710821</v>
-      </c>
-    </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B14">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1">
-        <v>55.940476894378598</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" si="5"/>
-        <v>0.49354910850522771</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="0"/>
-        <v>0.24359072250630504</v>
-      </c>
-      <c r="F14" s="1">
-        <v>74.899099588394094</v>
-      </c>
-      <c r="G14" s="1">
-        <f t="shared" si="1"/>
-        <v>-1.2591532866160549</v>
-      </c>
-      <c r="H14" s="1">
-        <f t="shared" si="2"/>
-        <v>1.5854669991960129</v>
-      </c>
-      <c r="I14" s="1">
-        <v>46.0656352043151</v>
-      </c>
-      <c r="J14" s="1">
-        <f t="shared" si="3"/>
-        <v>-18.307450612386049</v>
-      </c>
-      <c r="K14" s="1">
-        <f t="shared" si="4"/>
-        <v>335.16274792495432</v>
-      </c>
-      <c r="L14" s="1"/>
-      <c r="M14">
-        <v>11</v>
-      </c>
-      <c r="N14">
-        <v>84.877070000000003</v>
-      </c>
-      <c r="O14" s="1">
-        <f t="shared" si="6"/>
-        <v>5.9343999999995845E-2</v>
-      </c>
-      <c r="P14" s="3">
-        <f t="shared" si="7"/>
-        <v>3.5217103359995068E-3</v>
-      </c>
-      <c r="Q14">
-        <v>116.00306</v>
-      </c>
-      <c r="R14" s="1">
-        <f t="shared" si="8"/>
-        <v>-0.68074586666666903</v>
-      </c>
-      <c r="S14" s="1">
-        <f t="shared" si="9"/>
-        <v>0.46341493498375436</v>
-      </c>
-      <c r="T14">
-        <v>87.012029999999996</v>
-      </c>
-      <c r="U14" s="1">
-        <f t="shared" si="10"/>
-        <v>0.87581266666666124</v>
-      </c>
-      <c r="V14" s="1">
-        <f t="shared" si="11"/>
-        <v>0.76704782709376829</v>
-      </c>
-    </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B15">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1">
-        <v>55.067856788635197</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" si="5"/>
-        <v>-0.37907099723817339</v>
-      </c>
-      <c r="E15" s="1">
-        <f t="shared" si="0"/>
-        <v>0.14369482094714325</v>
-      </c>
-      <c r="F15" s="1">
-        <v>76.601675033569293</v>
-      </c>
-      <c r="G15" s="1">
-        <f t="shared" si="1"/>
-        <v>0.44342215855914446</v>
-      </c>
-      <c r="H15" s="1">
-        <f t="shared" si="2"/>
-        <v>0.19662321070125105</v>
-      </c>
-      <c r="I15" s="1">
-        <v>53.957095861434901</v>
-      </c>
-      <c r="J15" s="1">
-        <f t="shared" si="3"/>
-        <v>-10.415989955266248</v>
-      </c>
-      <c r="K15" s="1">
-        <f t="shared" si="4"/>
-        <v>108.49284674820737</v>
-      </c>
-      <c r="L15" s="1"/>
-      <c r="M15">
-        <v>12</v>
-      </c>
-      <c r="N15">
-        <v>84.82687</v>
-      </c>
-      <c r="O15" s="1">
-        <f t="shared" si="6"/>
-        <v>9.1439999999920474E-3</v>
-      </c>
-      <c r="P15" s="3">
-        <f t="shared" si="7"/>
-        <v>8.3612735999854566E-5</v>
-      </c>
-      <c r="Q15">
-        <v>119.4113</v>
-      </c>
-      <c r="R15" s="1">
-        <f t="shared" si="8"/>
-        <v>2.7274941333333231</v>
-      </c>
-      <c r="S15" s="1">
-        <f t="shared" si="9"/>
-        <v>7.4392242473676955</v>
-      </c>
-      <c r="T15">
-        <v>96.375389999999996</v>
-      </c>
-      <c r="U15" s="1">
-        <f t="shared" si="10"/>
-        <v>10.239172666666661</v>
-      </c>
-      <c r="V15" s="1">
-        <f t="shared" si="11"/>
-        <v>104.84065689781367</v>
-      </c>
-    </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B16">
-        <v>13</v>
-      </c>
-      <c r="C16" s="1">
-        <v>54.453131914138702</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" si="5"/>
-        <v>-0.99379587173466888</v>
-      </c>
-      <c r="E16" s="1">
-        <f t="shared" si="0"/>
-        <v>0.98763023467687039</v>
-      </c>
-      <c r="F16" s="1">
-        <v>79.258589982986393</v>
-      </c>
-      <c r="G16" s="1">
-        <f t="shared" si="1"/>
-        <v>3.1003371079762445</v>
-      </c>
-      <c r="H16" s="1">
-        <f t="shared" si="2"/>
-        <v>9.6120901830945034</v>
-      </c>
-      <c r="I16" s="1">
-        <v>139.77930784225401</v>
-      </c>
-      <c r="J16" s="1">
-        <f t="shared" si="3"/>
-        <v>75.406222025552864</v>
-      </c>
-      <c r="K16" s="1">
-        <f t="shared" si="4"/>
-        <v>5686.0983201669742</v>
-      </c>
-      <c r="L16" s="1"/>
-      <c r="M16">
-        <v>13</v>
-      </c>
-      <c r="N16">
-        <v>84.478229999999996</v>
-      </c>
-      <c r="O16" s="1">
-        <f t="shared" si="6"/>
-        <v>-0.33949600000001112</v>
-      </c>
-      <c r="P16" s="3">
-        <f t="shared" si="7"/>
-        <v>0.11525753401600755</v>
-      </c>
-      <c r="Q16">
-        <v>116.68213</v>
-      </c>
-      <c r="R16" s="1">
-        <f t="shared" si="8"/>
-        <v>-1.675866666673187E-3</v>
-      </c>
-      <c r="S16" s="1">
-        <f t="shared" si="9"/>
-        <v>2.8085290844662988E-6</v>
-      </c>
-      <c r="T16">
-        <v>73.421120000000002</v>
-      </c>
-      <c r="U16" s="1">
-        <f t="shared" si="10"/>
-        <v>-12.715097333333333</v>
-      </c>
-      <c r="V16" s="1">
-        <f t="shared" si="11"/>
-        <v>161.67370019614043</v>
-      </c>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <v>14</v>
-      </c>
-      <c r="C17" s="1">
-        <v>55.049853324890101</v>
-      </c>
-      <c r="D17" s="1">
-        <f t="shared" si="5"/>
-        <v>-0.39707446098326926</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" si="0"/>
-        <v>0.15766812756515383</v>
-      </c>
-      <c r="F17" s="1">
-        <v>79.327092885970998</v>
-      </c>
-      <c r="G17" s="1">
-        <f t="shared" si="1"/>
-        <v>3.1688400109608494</v>
-      </c>
-      <c r="H17" s="1">
-        <f t="shared" si="2"/>
-        <v>10.041547015066357</v>
-      </c>
-      <c r="I17" s="1">
-        <v>55.211561441421502</v>
-      </c>
-      <c r="J17" s="1">
-        <f t="shared" si="3"/>
-        <v>-9.1615243752796474</v>
-      </c>
-      <c r="K17" s="1">
-        <f t="shared" si="4"/>
-        <v>83.933528878843134</v>
-      </c>
-      <c r="L17" s="1"/>
-      <c r="M17">
-        <v>14</v>
-      </c>
-      <c r="N17">
-        <v>84.074349999999995</v>
-      </c>
-      <c r="O17" s="1">
-        <f t="shared" si="6"/>
-        <v>-0.74337600000001203</v>
-      </c>
-      <c r="P17" s="3">
-        <f t="shared" si="7"/>
-        <v>0.55260787737601791</v>
-      </c>
-      <c r="Q17">
-        <v>120.26223</v>
-      </c>
-      <c r="R17" s="1">
-        <f t="shared" si="8"/>
-        <v>3.5784241333333284</v>
-      </c>
-      <c r="S17" s="1">
-        <f t="shared" si="9"/>
-        <v>12.805119278022383</v>
-      </c>
-      <c r="T17">
-        <v>61.832329999999999</v>
-      </c>
-      <c r="U17" s="1">
-        <f t="shared" si="10"/>
-        <v>-24.303887333333336</v>
-      </c>
-      <c r="V17" s="1">
-        <f t="shared" si="11"/>
-        <v>590.67893951136057</v>
-      </c>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B18">
-        <v>15</v>
-      </c>
-      <c r="C18" s="1">
-        <v>54.397413253784102</v>
-      </c>
-      <c r="D18" s="1">
-        <f t="shared" si="5"/>
-        <v>-1.0495145320892689</v>
-      </c>
-      <c r="E18" s="1">
-        <f>D18^2</f>
-        <v>1.1014807530665571</v>
-      </c>
-      <c r="F18" s="1">
-        <v>78.2503178119659</v>
-      </c>
-      <c r="G18" s="1">
-        <f>F18-$F$20</f>
-        <v>2.0920649369557509</v>
-      </c>
-      <c r="H18" s="1">
-        <f>G18^2</f>
-        <v>4.3767357004396699</v>
-      </c>
-      <c r="I18" s="1">
-        <v>38.716996431350701</v>
-      </c>
-      <c r="J18" s="1">
-        <f>I18-$I$20</f>
-        <v>-25.656089385350448</v>
-      </c>
-      <c r="K18" s="1">
-        <f>J18^2</f>
-        <v>658.23492254909195</v>
-      </c>
-      <c r="L18" s="1"/>
-      <c r="M18">
-        <v>15</v>
-      </c>
-      <c r="N18" s="3">
-        <v>84.998500000000007</v>
-      </c>
-      <c r="O18" s="1">
-        <f t="shared" si="6"/>
-        <v>0.18077399999999955</v>
-      </c>
-      <c r="P18" s="3">
-        <f t="shared" si="7"/>
-        <v>3.2679239075999837E-2</v>
-      </c>
-      <c r="Q18">
-        <v>116.50902000000001</v>
-      </c>
-      <c r="R18" s="1">
-        <f t="shared" si="8"/>
-        <v>-0.17478586666666729</v>
-      </c>
-      <c r="S18" s="1">
-        <f t="shared" si="9"/>
-        <v>3.0550099186417996E-2</v>
-      </c>
-      <c r="T18">
-        <v>90.468850000000003</v>
-      </c>
-      <c r="U18" s="1">
-        <f t="shared" si="10"/>
-        <v>4.3326326666666688</v>
-      </c>
-      <c r="V18" s="1">
-        <f t="shared" si="11"/>
-        <v>18.77170582426713</v>
-      </c>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="1">
-        <f t="shared" ref="C20" si="12">AVERAGE(C4:C18)</f>
-        <v>55.44692778587337</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1">
-        <f>AVERAGE(F4:F18)</f>
-        <v>76.158252875010149</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1">
-        <f>AVERAGE(I4:I18)</f>
-        <v>64.373085816701149</v>
-      </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1">
-        <f t="shared" ref="N20:T20" si="13">AVERAGE(N4:N18)</f>
-        <v>84.817726000000008</v>
-      </c>
-      <c r="O20" s="1"/>
-      <c r="Q20" s="1">
-        <f t="shared" si="13"/>
-        <v>116.68380586666667</v>
-      </c>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1">
-        <f t="shared" si="13"/>
-        <v>86.136217333333335</v>
-      </c>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="1">
-        <f>SUM(E4:E18)/15</f>
-        <v>3.6247491757262886</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1">
-        <f>SUM(H4:H18)/15</f>
-        <v>6.5784955744438625</v>
-      </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1">
-        <f>SUM(K4:K18)/15</f>
-        <v>1125.8269298182879</v>
-      </c>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="P21" s="1">
-        <f>SUM(P4:P18)/15</f>
-        <v>0.12460826818400134</v>
-      </c>
-      <c r="S21" s="1">
-        <f>SUM(S4:S18)/15</f>
-        <v>2.8203152936578473</v>
-      </c>
-      <c r="V21" s="1">
-        <f>SUM(V4:V18)/15</f>
-        <v>205.66132322483287</v>
-      </c>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22">
-        <f>E21^(1/2)</f>
-        <v>1.9038774056451977</v>
-      </c>
-      <c r="H22">
-        <f>H21^(1/2)</f>
-        <v>2.5648578078411797</v>
-      </c>
-      <c r="K22">
-        <f>K21^(1/2)</f>
-        <v>33.553344539975264</v>
-      </c>
-      <c r="P22">
-        <f>P21^(1/2)</f>
-        <v>0.35299896343190773</v>
-      </c>
-      <c r="S22">
-        <f>S21^(1/2)</f>
-        <v>1.6793794370712793</v>
-      </c>
-      <c r="V22">
-        <f>V21^(1/2)</f>
-        <v>14.340896876584562</v>
-      </c>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23">
-        <f>STDEV(C4:C18) / SQRT(COUNT(C4:C18))</f>
-        <v>0.5088326398817401</v>
-      </c>
-      <c r="F23">
-        <f>STDEV(F4:F18) / SQRT(COUNT(F4:F18))</f>
-        <v>0.68548708305241213</v>
-      </c>
-      <c r="I23">
-        <f>STDEV(I4:I18) / SQRT(COUNT(I4:I18))</f>
-        <v>8.967508532069246</v>
-      </c>
-    </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25">
-        <f>(C20-N20)/C23</f>
-        <v>-57.721922518478422</v>
-      </c>
-    </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5DEEAB6-47B1-4477-9E37-0A99D65A087F}">
-  <dimension ref="A2:R63"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" customWidth="1"/>
-    <col min="8" max="8" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.33203125" customWidth="1"/>
-    <col min="14" max="14" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" customWidth="1"/>
+    <col min="14" max="14" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C2" s="10" t="s">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C3" s="10" t="s">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -5616,15 +4043,15 @@
         <f>(C4-MIN(C$4:C$18))/(MAX(C$4:C$18)-MIN(C$4:C$18))</f>
         <v>0.37264341153514224</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>84.652799999999999</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <f>(E4-MIN(E$4:E$18))/(MAX(E$4:E$18)-MIN(E$4:E$18))</f>
         <v>0.42075516988049216</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
       <c r="I4" s="1">
         <v>78.262053728103595</v>
       </c>
@@ -5654,7 +4081,7 @@
         <v>0.46923148863731123</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
@@ -5668,7 +4095,7 @@
       <c r="E5">
         <v>85.44914</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <f t="shared" ref="F5:F18" si="1">(E5-MIN(E$4:E$18))/(MAX(E$4:E$18)-MIN(E$4:E$18))</f>
         <v>1</v>
       </c>
@@ -5701,7 +4128,7 @@
         <v>0.47717738583712915</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
@@ -5715,7 +4142,7 @@
       <c r="E6">
         <v>84.469549999999998</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <f t="shared" si="1"/>
         <v>0.28746208511845545</v>
       </c>
@@ -5740,7 +4167,7 @@
         <f t="shared" si="4"/>
         <v>6.5737540878822068E-2</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="2">
         <v>85.650300000000001</v>
       </c>
       <c r="R6" s="1">
@@ -5748,7 +4175,7 @@
         <v>0.48065478149922197</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
@@ -5762,7 +4189,7 @@
       <c r="E7">
         <v>85.056229999999999</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <f t="shared" si="1"/>
         <v>0.71420362382618485</v>
       </c>
@@ -5795,7 +4222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5</v>
       </c>
@@ -5809,7 +4236,7 @@
       <c r="E8">
         <v>85.262860000000003</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <f t="shared" si="1"/>
         <v>0.86450294226754931</v>
       </c>
@@ -5842,7 +4269,7 @@
         <v>0.50907053479877229</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>6</v>
       </c>
@@ -5856,7 +4283,7 @@
       <c r="E9">
         <v>85.144090000000006</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <f t="shared" si="1"/>
         <v>0.77811156613010479</v>
       </c>
@@ -5889,7 +4316,7 @@
         <v>0.48854767116285375</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>7</v>
       </c>
@@ -5903,7 +4330,7 @@
       <c r="E10">
         <v>84.786169999999998</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <f t="shared" si="1"/>
         <v>0.51776634976978353</v>
       </c>
@@ -5928,7 +4355,7 @@
         <f t="shared" si="4"/>
         <v>0.1057212952866719</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="2">
         <v>85.950400000000002</v>
       </c>
       <c r="R10" s="1">
@@ -5936,7 +4363,7 @@
         <v>0.4857208839226117</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>8</v>
       </c>
@@ -5950,7 +4377,7 @@
       <c r="E11">
         <v>84.369529999999997</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <f t="shared" si="1"/>
         <v>0.21470915558012574</v>
       </c>
@@ -5983,7 +4410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>9</v>
       </c>
@@ -5997,7 +4424,7 @@
       <c r="E12">
         <v>85.046859999999995</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <f t="shared" si="1"/>
         <v>0.70738803744571654</v>
       </c>
@@ -6030,7 +4457,7 @@
         <v>0.84661307165842337</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>10</v>
       </c>
@@ -6044,7 +4471,7 @@
       <c r="E13">
         <v>84.77364</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <f t="shared" si="1"/>
         <v>0.50865223052248165</v>
       </c>
@@ -6077,7 +4504,7 @@
         <v>0.49571601195606918</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>11</v>
       </c>
@@ -6091,7 +4518,7 @@
       <c r="E14">
         <v>84.877070000000003</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <f t="shared" si="1"/>
         <v>0.58388553888230588</v>
       </c>
@@ -6124,7 +4551,7 @@
         <v>0.50364266438160288</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>12</v>
       </c>
@@ -6138,7 +4565,7 @@
       <c r="E15">
         <v>84.82687</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <f t="shared" si="1"/>
         <v>0.54737087118760075</v>
       </c>
@@ -6171,7 +4598,7 @@
         <v>0.66170911152279166</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>13</v>
       </c>
@@ -6185,7 +4612,7 @@
       <c r="E16">
         <v>84.478229999999996</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <f t="shared" si="1"/>
         <v>0.29377577666407206</v>
       </c>
@@ -6218,7 +4645,7 @@
         <v>0.27420933520108937</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>14</v>
       </c>
@@ -6232,7 +4659,7 @@
       <c r="E17">
         <v>84.074349999999995</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6265,7 +4692,7 @@
         <v>7.8574556450156222E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>15</v>
       </c>
@@ -6276,15 +4703,15 @@
         <f t="shared" si="0"/>
         <v>0.29198970604448565</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>84.998500000000007</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <f t="shared" si="1"/>
         <v>0.67221175597728278</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
       <c r="I18" s="1">
         <v>78.2503178119659</v>
       </c>
@@ -6314,528 +4741,414 @@
         <v>0.56199855968057733</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="1">
+        <v>6</v>
+      </c>
+      <c r="C20" s="10">
         <f>AVERAGE(C4:C18)</f>
         <v>55.44692778587337</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="10">
         <f t="shared" ref="D20:F20" si="6">AVERAGE(D4:D18)</f>
         <v>0.4424839509507193</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="10">
         <f t="shared" si="6"/>
         <v>84.817726000000008</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="10">
         <f t="shared" si="6"/>
         <v>0.54071967355014372</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="1">
+      <c r="I20" s="10">
         <f t="shared" ref="I20:R20" si="7">AVERAGE(I4:I18)</f>
         <v>76.158252875010149</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="10">
         <f t="shared" si="7"/>
         <v>0.65591026916213846</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="10">
         <f t="shared" si="7"/>
         <v>116.68380586666667</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="10">
         <f t="shared" si="7"/>
         <v>0.48051597705521193</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="1">
+      <c r="O20" s="10">
         <f t="shared" si="7"/>
         <v>64.373085816701149</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="10">
         <f t="shared" si="7"/>
         <v>0.25386406690261465</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="10">
         <f t="shared" si="7"/>
         <v>86.136217333333335</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20" s="10">
         <f t="shared" si="7"/>
         <v>0.48885773711390729</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="C21" s="9">
         <f>_xlfn.STDEV.P(C4:C18)</f>
         <v>1.9038774056451977</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="9">
         <f t="shared" ref="D21:F21" si="8">_xlfn.STDEV.P(D4:D18)</f>
         <v>0.27300488349240065</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="9">
         <f t="shared" si="8"/>
         <v>0.35299896343190773</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="9">
         <f t="shared" si="8"/>
         <v>0.25676573398985042</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="9">
         <f>_xlfn.STDEV.P(I4:I18)</f>
         <v>2.5648578078411797</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="9">
         <f>_xlfn.STDEV.P(J4:J18)</f>
         <v>0.27850608730159654</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="9">
         <f>_xlfn.STDEV.P(K4:K18)</f>
         <v>1.6793794370712793</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="9">
         <f>_xlfn.STDEV.P(L4:L18)</f>
         <v>0.24379747998398477</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="9">
         <f>_xlfn.STDEV.P(O4:O18)</f>
         <v>33.553344539975249</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="9">
         <f>_xlfn.STDEV.P(P4:P18)</f>
         <v>0.33200650243939789</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="9">
         <f>_xlfn.STDEV.P(Q4:Q18)</f>
         <v>14.34089687658456</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="9">
         <f>_xlfn.STDEV.P(R4:R18)</f>
         <v>0.24209414335237506</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="H23" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="N23" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B25" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="12">
-        <v>0.4474725609089748</v>
-      </c>
-      <c r="D25" s="12">
-        <v>0.54928856666940462</v>
-      </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" s="12">
-        <v>0.63959298075436</v>
-      </c>
-      <c r="J25" s="12">
-        <v>0.48079364664590252</v>
-      </c>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="O25" s="12">
-        <v>0.27080641272425765</v>
-      </c>
-      <c r="P25" s="12">
-        <v>0.49025961200509277</v>
-      </c>
-      <c r="Q25" s="13"/>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="8">
+        <f>D20</f>
+        <v>0.4424839509507193</v>
+      </c>
+      <c r="D25" s="8">
+        <f>F20</f>
+        <v>0.54071967355014372</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="8">
+        <f>J20</f>
+        <v>0.65591026916213846</v>
+      </c>
+      <c r="J25" s="8">
+        <f>L20</f>
+        <v>0.48051597705521193</v>
+      </c>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O25" s="8">
+        <f>P20</f>
+        <v>0.25386406690261465</v>
+      </c>
+      <c r="P25" s="8">
+        <f>R20</f>
+        <v>0.48885773711390729</v>
+      </c>
+      <c r="Q25" s="5"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B26" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="12">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="8">
         <v>8.559606830801629E-2</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="8">
         <v>7.4885399009187975E-2</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I26" s="12">
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="8">
         <v>8.5197791596485759E-2</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J26" s="8">
         <v>6.8580152124137456E-2</v>
       </c>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="O26" s="12">
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O26" s="8">
         <v>0.12254967059409221</v>
       </c>
-      <c r="P26" s="12">
+      <c r="P26" s="8">
         <v>6.7594685423737824E-2</v>
       </c>
-      <c r="Q26" s="13"/>
+      <c r="Q26" s="5"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B27" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="12">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="5">
+        <v>15</v>
+      </c>
+      <c r="D27" s="5">
+        <v>15</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="5">
+        <v>15</v>
+      </c>
+      <c r="J27" s="5">
+        <v>15</v>
+      </c>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O27" s="5">
+        <v>15</v>
+      </c>
+      <c r="P27" s="5">
+        <v>15</v>
+      </c>
+      <c r="Q27" s="5"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="9">
+        <v>-0.20593606054110228</v>
+      </c>
+      <c r="H28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="9">
+        <v>0.16411545549869741</v>
+      </c>
+      <c r="N28" t="s">
+        <v>12</v>
+      </c>
+      <c r="O28" s="9">
+        <v>7.5593016525087875E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="N29" t="s">
+        <v>13</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="12">
+      <c r="C30">
         <v>14</v>
       </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I27" s="12">
+      <c r="H30" t="s">
         <v>14</v>
       </c>
-      <c r="J27" s="12">
+      <c r="I30">
         <v>14</v>
       </c>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="O27" s="12">
+      <c r="N30" t="s">
         <v>14</v>
       </c>
-      <c r="P27" s="12">
+      <c r="O30">
         <v>14</v>
       </c>
-      <c r="Q27" s="13"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B28" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="11">
-        <v>-0.20593606054110228</v>
-      </c>
-      <c r="D28" s="11"/>
-      <c r="H28" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I28" s="11">
-        <v>0.16411545549869741</v>
-      </c>
-      <c r="J28" s="11"/>
-      <c r="N28" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="O28" s="11">
-        <v>7.5593016525087875E-2</v>
-      </c>
-      <c r="P28" s="11"/>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="5">
+        <v>-0.86599999999999999</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="5">
+        <v>1.6559999999999999</v>
+      </c>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O31" s="5">
+        <v>-1.9550000000000001</v>
+      </c>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B29" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="11">
-        <v>0</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="H29" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="I29" s="11">
-        <v>0</v>
-      </c>
-      <c r="J29" s="11"/>
-      <c r="N29" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="O29" s="11">
-        <v>0</v>
-      </c>
-      <c r="P29" s="11"/>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O32" s="5">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B30" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="11">
-        <v>13</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="H30" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I30" s="11">
-        <v>13</v>
-      </c>
-      <c r="J30" s="11"/>
-      <c r="N30" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="O30" s="11">
-        <v>13</v>
-      </c>
-      <c r="P30" s="11"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B31" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="12">
-        <v>-0.86614017832489865</v>
-      </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I31" s="12">
-        <v>1.6563152651528419</v>
-      </c>
-      <c r="J31" s="12"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="O31" s="12">
-        <v>-1.9551321642719919</v>
-      </c>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B32" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="11">
-        <v>0.20105810612633324</v>
-      </c>
-      <c r="D32" s="11"/>
-      <c r="E32" t="s">
-        <v>45</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I32" s="11">
-        <v>6.0791392959466214E-2</v>
-      </c>
-      <c r="J32" s="11"/>
-      <c r="K32" t="s">
-        <v>45</v>
-      </c>
-      <c r="N32" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="O32" s="11">
-        <v>3.6206577067064184E-2</v>
-      </c>
-      <c r="P32" s="11"/>
-      <c r="Q32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B33" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="11">
-        <v>1.7709333959868729</v>
-      </c>
-      <c r="D33" s="11"/>
-      <c r="H33" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I33" s="11">
-        <v>1.7709333959868729</v>
-      </c>
-      <c r="J33" s="11"/>
-      <c r="N33" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O33" s="11">
-        <v>1.7709333959868729</v>
-      </c>
-      <c r="P33" s="11"/>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B34" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="12">
-        <v>0.40211621225266647</v>
-      </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I34" s="12">
-        <v>0.12158278591893243</v>
-      </c>
-      <c r="J34" s="12"/>
-      <c r="K34" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="O34" s="12">
-        <v>7.2413154134128369E-2</v>
-      </c>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="14">
-        <v>2.1603686564627926</v>
-      </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I35" s="14">
-        <v>2.1603686564627926</v>
-      </c>
-      <c r="J35" s="14"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="O35" s="14">
-        <v>2.1603686564627926</v>
-      </c>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="6"/>
-    </row>
-    <row r="53" spans="2:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N53" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" ht="211.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="N54" s="9"/>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="N55" s="8"/>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="N56" s="8"/>
-    </row>
-    <row r="57" spans="2:14" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H57" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N57" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="B59" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N59" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="H63" s="7" t="s">
-        <v>31</v>
-      </c>
+    <row r="33" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="6">
+        <v>2.145</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="6">
+        <v>2.145</v>
+      </c>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O33" s="6">
+        <v>2.145</v>
+      </c>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="6">
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="N53:N54"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="I2:K2"/>
